--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_financial_svcs_non_bank_insurance.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.219</v>
+        <v>0.042</v>
       </c>
       <c r="E2">
-        <v>0.106</v>
+        <v>0.017875</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,91 +603,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.007120930736449746</v>
+        <v>0.0001625233069986928</v>
       </c>
       <c r="J2">
-        <v>-0.005868459529804535</v>
+        <v>0.0001338805103877161</v>
       </c>
       <c r="K2">
-        <v>237.906</v>
+        <v>213.279</v>
       </c>
       <c r="L2">
-        <v>0.1881032256636224</v>
+        <v>0.2175503842442516</v>
       </c>
       <c r="M2">
-        <v>24.285</v>
+        <v>8.465999999999999</v>
       </c>
       <c r="N2">
-        <v>0.0167513950873611</v>
+        <v>0.006487058066295803</v>
       </c>
       <c r="O2">
-        <v>0.1020781316990744</v>
+        <v>0.03969448468906924</v>
       </c>
       <c r="P2">
-        <v>24.275</v>
+        <v>8.465999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.01674449725121229</v>
+        <v>0.006487058066295803</v>
       </c>
       <c r="R2">
-        <v>0.1020360982909216</v>
+        <v>0.03969448468906924</v>
       </c>
       <c r="S2">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0004117768169652052</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>898.577</v>
+        <v>722.434</v>
       </c>
       <c r="V2">
-        <v>0.6198236913080366</v>
+        <v>0.5535638208204987</v>
       </c>
       <c r="W2">
-        <v>0.1054858663349229</v>
+        <v>0.02370065789473684</v>
       </c>
       <c r="X2">
-        <v>0.05413753400809494</v>
+        <v>0.04686861246368108</v>
       </c>
       <c r="Y2">
-        <v>0.05134833232682801</v>
+        <v>-0.02316795456894424</v>
       </c>
       <c r="Z2">
-        <v>0.2419796713217131</v>
+        <v>0.2038194249805518</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05723159431545966</v>
+        <v>0.05726100443957494</v>
       </c>
       <c r="AC2">
-        <v>-0.05585217880123222</v>
+        <v>-0.05726100443957494</v>
       </c>
       <c r="AD2">
-        <v>4077.053</v>
+        <v>3056.396</v>
       </c>
       <c r="AE2">
-        <v>105.8664486051219</v>
+        <v>0.3533383780545979</v>
       </c>
       <c r="AF2">
-        <v>4182.919448605122</v>
+        <v>3056.749338378055</v>
       </c>
       <c r="AG2">
-        <v>3284.342448605122</v>
+        <v>2334.315338378055</v>
       </c>
       <c r="AH2">
-        <v>0.7426202334748503</v>
+        <v>0.7007984763301717</v>
       </c>
       <c r="AI2">
-        <v>0.6475809771458139</v>
+        <v>0.5552527552828648</v>
       </c>
       <c r="AJ2">
-        <v>0.6937668327346451</v>
+        <v>0.6414054944435545</v>
       </c>
       <c r="AK2">
-        <v>0.5906323286156787</v>
+        <v>0.488073233137409</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>335.0910659981918</v>
+        <v>13288.67826086956</v>
       </c>
       <c r="AP2">
-        <v>269.9385591029113</v>
+        <v>10149.19712338285</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>People's Merchant Finance PLC (COSE:PMB.N0000)</t>
+          <t>Multi Finance PLC (COSE:MFL.N0000)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,6 +718,9 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.062</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -731,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.776</v>
+        <v>-0.575</v>
       </c>
       <c r="L3">
-        <v>-1.453183520599251</v>
+        <v>-0.9663865546218487</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.15</v>
+        <v>0.181</v>
       </c>
       <c r="V3">
-        <v>0.2560975609756098</v>
+        <v>0.05876623376623376</v>
       </c>
       <c r="W3">
-        <v>-0.6208</v>
+        <v>-0.1592797783933518</v>
       </c>
       <c r="X3">
-        <v>0.0351767723351382</v>
+        <v>0.02964484299811081</v>
       </c>
       <c r="Y3">
-        <v>-0.6559767723351382</v>
+        <v>-0.1889246213914626</v>
       </c>
       <c r="Z3">
-        <v>0.1521367521367522</v>
+        <v>0.1946352633300621</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03535657619898807</v>
+        <v>0.03130272505253898</v>
       </c>
       <c r="AC3">
-        <v>-0.03535657619898807</v>
+        <v>-0.03130272505253898</v>
       </c>
       <c r="AD3">
-        <v>0.08799999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.08799999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="AG3">
-        <v>-3.062</v>
+        <v>-0.035</v>
       </c>
       <c r="AH3">
-        <v>0.007103648692282854</v>
+        <v>0.04525728456292622</v>
       </c>
       <c r="AI3">
-        <v>0.0122426265998887</v>
+        <v>0.04670505438259757</v>
       </c>
       <c r="AJ3">
-        <v>-0.331457025330158</v>
+        <v>-0.01149425287356322</v>
       </c>
       <c r="AK3">
-        <v>-0.7582961862308072</v>
+        <v>-0.01188455008488964</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -823,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dialog Finance PLC (COSE:CALF.N0000)</t>
+          <t>People's Merchant Finance PLC (COSE:PMB.N0000)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -831,9 +834,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.188</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-1.02</v>
+        <v>-0.235</v>
       </c>
       <c r="L4">
-        <v>-1.363636363636364</v>
+        <v>-0.188</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,55 +874,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="V4">
-        <v>0.04861111111111111</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="W4">
-        <v>-0.1773913043478261</v>
+        <v>-0.03309859154929577</v>
       </c>
       <c r="X4">
-        <v>0.03519662156892802</v>
+        <v>0.02967002427055733</v>
       </c>
       <c r="Y4">
-        <v>-0.2125879259167541</v>
+        <v>-0.0627686158198531</v>
       </c>
       <c r="Z4">
-        <v>0.1348476654047233</v>
+        <v>0.3095591877166914</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03539534959584018</v>
+        <v>0.03152706171976796</v>
       </c>
       <c r="AC4">
-        <v>-0.03539534959584018</v>
+        <v>-0.03152706171976796</v>
       </c>
       <c r="AD4">
-        <v>0.192</v>
+        <v>0.48</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.192</v>
+        <v>0.48</v>
       </c>
       <c r="AG4">
-        <v>-0.8580000000000001</v>
+        <v>-1.28</v>
       </c>
       <c r="AH4">
-        <v>0.008810572687224669</v>
+        <v>0.046875</v>
       </c>
       <c r="AI4">
-        <v>0.02271651680075722</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="AJ4">
-        <v>-0.04136534567544114</v>
+        <v>-0.1509433962264151</v>
       </c>
       <c r="AK4">
-        <v>-0.1159146176708998</v>
+        <v>-0.1807909604519774</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multi Finance PLC (COSE:MFL.N0000)</t>
+          <t>HNB Finance PLC (COSE:HNBF.N0000)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,9 +947,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>-0.116</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -963,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>-0.624</v>
+        <v>-1.21</v>
       </c>
       <c r="L5">
-        <v>-1.353579175704989</v>
+        <v>-0.07610062893081761</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -990,55 +987,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.886</v>
+        <v>24.4</v>
       </c>
       <c r="V5">
-        <v>0.1942982456140351</v>
+        <v>0.2699115044247787</v>
       </c>
       <c r="W5">
-        <v>-0.1327659574468085</v>
+        <v>-0.04464944649446494</v>
       </c>
       <c r="X5">
-        <v>0.03593063105372937</v>
+        <v>0.03162146613396759</v>
       </c>
       <c r="Y5">
-        <v>-0.1686965885005379</v>
+        <v>-0.07627091262843254</v>
       </c>
       <c r="Z5">
-        <v>0.09935344827586207</v>
+        <v>0.3904715127701375</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03741573221512717</v>
+        <v>0.0375538476269509</v>
       </c>
       <c r="AC5">
-        <v>-0.03741573221512717</v>
+        <v>-0.0375538476269509</v>
       </c>
       <c r="AD5">
-        <v>0.333</v>
+        <v>16.9</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.333</v>
+        <v>16.9</v>
       </c>
       <c r="AG5">
-        <v>-0.5529999999999999</v>
+        <v>-7.5</v>
       </c>
       <c r="AH5">
-        <v>0.06805640711220111</v>
+        <v>0.157502329916123</v>
       </c>
       <c r="AI5">
-        <v>0.08445346183109308</v>
+        <v>0.3985849056603774</v>
       </c>
       <c r="AJ5">
-        <v>-0.1380084851509858</v>
+        <v>-0.09047044632086851</v>
       </c>
       <c r="AK5">
-        <v>-0.1808963035655872</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1064,10 +1061,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.136</v>
+        <v>0.0205</v>
       </c>
       <c r="E6">
-        <v>0.0379</v>
+        <v>0.00835</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1082,28 +1079,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="L6">
-        <v>0.2846534653465347</v>
+        <v>0.3189033189033189</v>
       </c>
       <c r="M6">
-        <v>3.36</v>
+        <v>1.44</v>
       </c>
       <c r="N6">
-        <v>0.02660332541567696</v>
+        <v>0.0144</v>
       </c>
       <c r="O6">
-        <v>0.1460869565217391</v>
+        <v>0.06515837104072397</v>
       </c>
       <c r="P6">
-        <v>3.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q6">
-        <v>0.02660332541567696</v>
+        <v>0.0144</v>
       </c>
       <c r="R6">
-        <v>0.1460869565217391</v>
+        <v>0.06515837104072397</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1112,55 +1109,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>4.64</v>
+        <v>6.75</v>
       </c>
       <c r="V6">
-        <v>0.03673792557403009</v>
+        <v>0.0675</v>
       </c>
       <c r="W6">
-        <v>0.1053113553113553</v>
+        <v>0.09444444444444446</v>
       </c>
       <c r="X6">
-        <v>0.04001513799422744</v>
+        <v>0.03502178050142726</v>
       </c>
       <c r="Y6">
-        <v>0.06529621731712787</v>
+        <v>0.05942266394301719</v>
       </c>
       <c r="Z6">
-        <v>0.2806822524055997</v>
+        <v>0.2443065641965733</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04404918740932815</v>
+        <v>0.04295238318311002</v>
       </c>
       <c r="AC6">
-        <v>-0.04404918740932815</v>
+        <v>-0.04295238318311002</v>
       </c>
       <c r="AD6">
-        <v>54.3</v>
+        <v>42.7</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>54.3</v>
+        <v>42.7</v>
       </c>
       <c r="AG6">
-        <v>49.66</v>
+        <v>35.95</v>
       </c>
       <c r="AH6">
-        <v>0.3006644518272425</v>
+        <v>0.299229152067274</v>
       </c>
       <c r="AI6">
-        <v>0.1843177189409368</v>
+        <v>0.1413907284768212</v>
       </c>
       <c r="AJ6">
-        <v>0.2822232325528529</v>
+        <v>0.2644354542111071</v>
       </c>
       <c r="AK6">
-        <v>0.1712650020692509</v>
+        <v>0.1217612193056732</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1186,7 +1183,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.238</v>
+        <v>-0.0361</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1201,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.07</v>
+        <v>-0.209</v>
       </c>
       <c r="L7">
-        <v>0.1498599439775911</v>
+        <v>-0.06613924050632911</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1213,7 +1210,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1222,61 +1219,61 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.665</v>
+        <v>0.508</v>
       </c>
       <c r="V7">
-        <v>0.08099878197320341</v>
+        <v>0.06978021978021978</v>
       </c>
       <c r="W7">
-        <v>0.1384217335058215</v>
+        <v>-0.03381877022653722</v>
       </c>
       <c r="X7">
-        <v>0.04076826794828393</v>
+        <v>0.03765130454545827</v>
       </c>
       <c r="Y7">
-        <v>0.09765346555753755</v>
+        <v>-0.07147007477199549</v>
       </c>
       <c r="Z7">
-        <v>0.7644539614561027</v>
+        <v>0.3296817944705269</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04938022378117939</v>
+        <v>0.04966956801577371</v>
       </c>
       <c r="AC7">
-        <v>-0.04938022378117939</v>
+        <v>-0.04966956801577371</v>
       </c>
       <c r="AD7">
-        <v>4.07</v>
+        <v>4.46</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>4.07</v>
+        <v>4.46</v>
       </c>
       <c r="AG7">
-        <v>3.405</v>
+        <v>3.952</v>
       </c>
       <c r="AH7">
-        <v>0.3314332247557003</v>
+        <v>0.3798977853492334</v>
       </c>
       <c r="AI7">
-        <v>0.3970731707317073</v>
+        <v>0.4342745861733204</v>
       </c>
       <c r="AJ7">
-        <v>0.2931554024967714</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="AK7">
-        <v>0.3552425665101722</v>
+        <v>0.4048350747797582</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1293,7 +1290,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SMB Leasing PLC (COSE:SEMB.N0000)</t>
+          <t>Softlogic Finance PLC (COSE:CRL.N0000)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1301,29 +1298,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D8">
-        <v>0.0124</v>
-      </c>
-      <c r="E8">
-        <v>0.00092</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8">
-        <v>0.417</v>
+        <v>-5.54</v>
       </c>
       <c r="L8">
-        <v>0.2673076923076923</v>
+        <v>32.02312138728324</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1332,7 +1323,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1341,61 +1332,61 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.165</v>
+        <v>0.749</v>
       </c>
       <c r="V8">
-        <v>0.03837209302325582</v>
+        <v>0.04431952662721894</v>
       </c>
       <c r="W8">
-        <v>0.05931721194879089</v>
+        <v>-0.5177570093457944</v>
       </c>
       <c r="X8">
-        <v>0.04377128861171718</v>
+        <v>0.04053995061926437</v>
       </c>
       <c r="Y8">
-        <v>0.01554592333707371</v>
+        <v>-0.5582969599650588</v>
       </c>
       <c r="Z8">
-        <v>0.1470588235294118</v>
+        <v>-0.006983409356961207</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0509799265321237</v>
+        <v>0.04997306988426289</v>
       </c>
       <c r="AC8">
-        <v>-0.0509799265321237</v>
+        <v>-0.04997306988426289</v>
       </c>
       <c r="AD8">
-        <v>3.26</v>
+        <v>13.8</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>3.26</v>
+        <v>13.8</v>
       </c>
       <c r="AG8">
-        <v>3.095</v>
+        <v>13.051</v>
       </c>
       <c r="AH8">
-        <v>0.4312169312169312</v>
+        <v>0.4495114006514658</v>
       </c>
       <c r="AI8">
-        <v>0.3490364025695931</v>
+        <v>0.563265306122449</v>
       </c>
       <c r="AJ8">
-        <v>0.418526031102096</v>
+        <v>0.4357450502487396</v>
       </c>
       <c r="AK8">
-        <v>0.3373297002724795</v>
+        <v>0.5494926529409289</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1412,7 +1403,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>People's Leasing &amp; Finance PLC (COSE:PLC.N0000)</t>
+          <t>Prime Finance PLC (COSE:GSF.N0000)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1421,109 +1412,112 @@
         </is>
       </c>
       <c r="D9">
+        <v>0.363</v>
+      </c>
+      <c r="E9">
+        <v>0.492</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.02332121159816191</v>
+      </c>
+      <c r="J9">
+        <v>0.01166060579908096</v>
+      </c>
+      <c r="K9">
         <v>0.115</v>
       </c>
-      <c r="E9">
-        <v>0.0325</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>24.9</v>
-      </c>
       <c r="L9">
-        <v>0.2139175257731959</v>
+        <v>0.05637254901960784</v>
       </c>
       <c r="M9">
-        <v>6.53</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.04066002490660025</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.2622489959839358</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>6.53</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.04066002490660025</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.2622489959839358</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>14.7</v>
+        <v>5.7</v>
       </c>
       <c r="V9">
-        <v>0.09153175591531756</v>
+        <v>0.6581986143187067</v>
       </c>
       <c r="W9">
-        <v>0.1389508928571428</v>
+        <v>0.01260964912280702</v>
       </c>
       <c r="X9">
-        <v>0.04901905913770292</v>
+        <v>0.04339523672564846</v>
       </c>
       <c r="Y9">
-        <v>0.08993183371943993</v>
+        <v>-0.03078558760284144</v>
       </c>
       <c r="Z9">
-        <v>0.2189204438593192</v>
+        <v>0.1441581638074863</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.001680971520878437</v>
       </c>
       <c r="AB9">
-        <v>0.0514413569105019</v>
+        <v>0.05254172647589048</v>
       </c>
       <c r="AC9">
-        <v>-0.0514413569105019</v>
+        <v>-0.05086075495501204</v>
       </c>
       <c r="AD9">
-        <v>195.4</v>
+        <v>8.59</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.2271236416987485</v>
       </c>
       <c r="AF9">
-        <v>195.4</v>
+        <v>8.817123641698748</v>
       </c>
       <c r="AG9">
-        <v>180.7</v>
+        <v>3.117123641698748</v>
       </c>
       <c r="AH9">
-        <v>0.548876404494382</v>
+        <v>0.5044951230225284</v>
       </c>
       <c r="AI9">
-        <v>0.5034784849265653</v>
+        <v>0.4921059773890573</v>
       </c>
       <c r="AJ9">
-        <v>0.5294462349838852</v>
+        <v>0.2646761413510243</v>
       </c>
       <c r="AK9">
-        <v>0.4839314408141404</v>
+        <v>0.2551438237933166</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>92.36559139784946</v>
+      </c>
+      <c r="AP9">
+        <v>33.51745851288976</v>
       </c>
     </row>
     <row r="10">
@@ -1534,7 +1528,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prime Finance PLC (COSE:GSF.N0000)</t>
+          <t>SMB Leasing PLC (COSE:SEMB.N0000)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1543,7 +1537,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.377</v>
+        <v>-0.094</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1552,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.002927317896250338</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.001737436880868007</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.828</v>
+        <v>-0.253</v>
       </c>
       <c r="L10">
-        <v>0.2653846153846154</v>
+        <v>-0.318639798488665</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1570,7 +1564,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1579,73 +1573,67 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.996</v>
+        <v>0.637</v>
       </c>
       <c r="V10">
-        <v>0.1353260869565217</v>
+        <v>0.1096385542168675</v>
       </c>
       <c r="W10">
-        <v>0.09069003285870754</v>
+        <v>-0.04259259259259259</v>
       </c>
       <c r="X10">
-        <v>0.0445421620680849</v>
+        <v>0.03672626698821935</v>
       </c>
       <c r="Y10">
-        <v>0.04614787079062264</v>
+        <v>-0.07931885958081195</v>
       </c>
       <c r="Z10">
-        <v>0.2630543645800843</v>
+        <v>0.08788046485888212</v>
       </c>
       <c r="AA10">
-        <v>-0.0004570403546947371</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.05175305296182104</v>
+        <v>0.05103129932551462</v>
       </c>
       <c r="AC10">
-        <v>-0.05221009331651578</v>
+        <v>-0.05103129932551462</v>
       </c>
       <c r="AD10">
-        <v>5.8</v>
+        <v>3.18</v>
       </c>
       <c r="AE10">
-        <v>0.2756661591815053</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>6.075666159181505</v>
+        <v>3.18</v>
       </c>
       <c r="AG10">
-        <v>5.079666159181505</v>
+        <v>2.543</v>
       </c>
       <c r="AH10">
-        <v>0.4522043110627298</v>
+        <v>0.3537263626251391</v>
       </c>
       <c r="AI10">
-        <v>0.3998288785457737</v>
+        <v>0.3537263626251391</v>
       </c>
       <c r="AJ10">
-        <v>0.4083442508971424</v>
+        <v>0.3044415180174788</v>
       </c>
       <c r="AK10">
-        <v>0.3577313791914039</v>
+        <v>0.3044415180174788</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>126.0869565217391</v>
-      </c>
-      <c r="AP10">
-        <v>110.4275251995979</v>
       </c>
     </row>
     <row r="11">
@@ -1656,7 +1644,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LOLC Development Finance PLC (COSE:NIFL.N0000)</t>
+          <t>Abans Finance PLC (COSE:AFSL.N0000)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1665,7 +1653,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.605</v>
+        <v>0.0703</v>
+      </c>
+      <c r="E11">
+        <v>0.0688</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1680,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>-0.075</v>
+        <v>0.753</v>
       </c>
       <c r="L11">
-        <v>-0.007660878447395302</v>
+        <v>0.1836585365853659</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1692,7 +1683,7 @@
         <v>-0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1701,61 +1692,61 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2.45</v>
+        <v>1.66</v>
       </c>
       <c r="V11">
-        <v>0.0481335952848723</v>
+        <v>0.1692150866462793</v>
       </c>
       <c r="W11">
-        <v>-0.004573170731707318</v>
+        <v>0.08786464410735122</v>
       </c>
       <c r="X11">
-        <v>0.04827048124019336</v>
+        <v>0.03964395205744141</v>
       </c>
       <c r="Y11">
-        <v>-0.05284365197190068</v>
+        <v>0.04822069204990981</v>
       </c>
       <c r="Z11">
-        <v>0.1441189459737966</v>
+        <v>0.2923559612093554</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.05334474428183058</v>
+        <v>0.05108696796719805</v>
       </c>
       <c r="AC11">
-        <v>-0.05334474428183058</v>
+        <v>-0.05108696796719805</v>
       </c>
       <c r="AD11">
-        <v>58.6</v>
+        <v>7.39</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>58.6</v>
+        <v>7.39</v>
       </c>
       <c r="AG11">
-        <v>56.15</v>
+        <v>5.73</v>
       </c>
       <c r="AH11">
-        <v>0.5351598173515982</v>
+        <v>0.4296511627906976</v>
       </c>
       <c r="AI11">
-        <v>0.8027397260273973</v>
+        <v>0.4454490657022303</v>
       </c>
       <c r="AJ11">
-        <v>0.524521251751518</v>
+        <v>0.3687258687258687</v>
       </c>
       <c r="AK11">
-        <v>0.7958894401133948</v>
+        <v>0.3837910247823175</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1772,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LB Finance PLC (COSE:LFIN.N0000)</t>
+          <t>Commercial Leasing &amp; Finance PLC (COSE:CLC.N0000)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1781,10 +1772,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.241</v>
+        <v>0.00598</v>
       </c>
       <c r="E12">
-        <v>0.233</v>
+        <v>-0.09759999999999999</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1793,103 +1784,94 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.003815320609566158</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.002446595727210586</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>28.6</v>
+        <v>5.58</v>
       </c>
       <c r="L12">
-        <v>0.313940724478595</v>
+        <v>0.187248322147651</v>
       </c>
       <c r="M12">
-        <v>9.119999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.07794871794871794</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>0.3188811188811189</v>
+        <v>-0</v>
       </c>
       <c r="P12">
-        <v>9.119999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.07794871794871794</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>0.3188811188811189</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>50</v>
+        <v>16.3</v>
       </c>
       <c r="V12">
-        <v>0.4273504273504273</v>
+        <v>0.1188046647230321</v>
       </c>
       <c r="W12">
-        <v>0.282051282051282</v>
+        <v>0.05602409638554217</v>
       </c>
       <c r="X12">
-        <v>0.05275415877934941</v>
+        <v>0.04092885028947373</v>
       </c>
       <c r="Y12">
-        <v>0.2292971232719326</v>
+        <v>0.01509524609606844</v>
       </c>
       <c r="Z12">
-        <v>0.3620281673387536</v>
+        <v>0.1347806422433288</v>
       </c>
       <c r="AA12">
-        <v>-0.0008857365673408735</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.05316560764988109</v>
+        <v>0.05253099092796953</v>
       </c>
       <c r="AC12">
-        <v>-0.05405134421722196</v>
+        <v>-0.05253099092796953</v>
       </c>
       <c r="AD12">
-        <v>171</v>
+        <v>115.8</v>
       </c>
       <c r="AE12">
-        <v>9.537878537657384</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>180.5378785376574</v>
+        <v>115.8</v>
       </c>
       <c r="AG12">
-        <v>130.5378785376574</v>
+        <v>99.5</v>
       </c>
       <c r="AH12">
-        <v>0.6067727558755445</v>
+        <v>0.4577075098814229</v>
       </c>
       <c r="AI12">
-        <v>0.6167219610920056</v>
+        <v>0.5273224043715847</v>
       </c>
       <c r="AJ12">
-        <v>0.5273450645566511</v>
+        <v>0.4203633291085763</v>
       </c>
       <c r="AK12">
-        <v>0.5377730056967861</v>
+        <v>0.4894244958189867</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>109.6153846153846</v>
-      </c>
-      <c r="AP12">
-        <v>83.67812726772908</v>
       </c>
     </row>
     <row r="13">
@@ -1909,10 +1891,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0429</v>
-      </c>
-      <c r="E13">
-        <v>-0.2</v>
+        <v>-0.105</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1927,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.163</v>
+        <v>-0.102</v>
       </c>
       <c r="L13">
-        <v>0.06820083682008368</v>
+        <v>-0.07499999999999998</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1939,7 +1918,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -1948,61 +1927,61 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.187</v>
+        <v>0.129</v>
       </c>
       <c r="V13">
-        <v>0.05917721518987341</v>
+        <v>0.04095238095238096</v>
       </c>
       <c r="W13">
-        <v>0.02963636363636364</v>
+        <v>-0.01976744186046512</v>
       </c>
       <c r="X13">
-        <v>0.05034192065010112</v>
+        <v>0.04313823537787959</v>
       </c>
       <c r="Y13">
-        <v>-0.02070555701373748</v>
+        <v>-0.0629056772383447</v>
       </c>
       <c r="Z13">
-        <v>0.2642636001769129</v>
+        <v>0.1466307277628032</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05457495967423004</v>
+        <v>0.05470772928246526</v>
       </c>
       <c r="AC13">
-        <v>-0.05457495967423004</v>
+        <v>-0.05470772928246526</v>
       </c>
       <c r="AD13">
-        <v>4.21</v>
+        <v>3.15</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>4.21</v>
+        <v>3.15</v>
       </c>
       <c r="AG13">
-        <v>4.023</v>
+        <v>3.021</v>
       </c>
       <c r="AH13">
-        <v>0.5712347354138398</v>
+        <v>0.5</v>
       </c>
       <c r="AI13">
-        <v>0.4445617740232313</v>
+        <v>0.4177718832891247</v>
       </c>
       <c r="AJ13">
-        <v>0.5600723931504942</v>
+        <v>0.4895478852698104</v>
       </c>
       <c r="AK13">
-        <v>0.4333728320586017</v>
+        <v>0.407637295911483</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2019,7 +1998,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Commercial Leasing &amp; Finance PLC (COSE:CLC.N0000)</t>
+          <t>LB Finance PLC (COSE:LFIN.N0000)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2028,10 +2007,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0693</v>
+        <v>0.12</v>
       </c>
       <c r="E14">
-        <v>-0.0243</v>
+        <v>0.127</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2046,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.71</v>
+        <v>26.9</v>
       </c>
       <c r="L14">
-        <v>0.1645533141210374</v>
+        <v>0.3534822601839684</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2073,55 +2052,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>16.3</v>
+        <v>53.6</v>
       </c>
       <c r="V14">
-        <v>0.1364016736401674</v>
+        <v>0.4926470588235294</v>
       </c>
       <c r="W14">
-        <v>0.05516908212560386</v>
+        <v>0.2397504456327985</v>
       </c>
       <c r="X14">
-        <v>0.04829177983141918</v>
+        <v>0.04700492497966961</v>
       </c>
       <c r="Y14">
-        <v>0.006877302294184685</v>
+        <v>0.1927455206531289</v>
       </c>
       <c r="Z14">
-        <v>0.1295743091859597</v>
+        <v>0.3263293310463122</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.05482374232944823</v>
+        <v>0.05513699655962236</v>
       </c>
       <c r="AC14">
-        <v>-0.05482374232944823</v>
+        <v>-0.05513699655962236</v>
       </c>
       <c r="AD14">
-        <v>137.8</v>
+        <v>138.5</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>137.8</v>
+        <v>138.5</v>
       </c>
       <c r="AG14">
-        <v>121.5</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="AH14">
-        <v>0.5355616012436845</v>
+        <v>0.5600485240598463</v>
       </c>
       <c r="AI14">
-        <v>0.5804549283909015</v>
+        <v>0.5010853835021708</v>
       </c>
       <c r="AJ14">
-        <v>0.5041493775933611</v>
+        <v>0.4383066597831699</v>
       </c>
       <c r="AK14">
-        <v>0.5495251017639078</v>
+        <v>0.3810592459605027</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2138,7 +2117,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bimputh Finance PLC (COSE:BLI.N0000)</t>
+          <t>People's Leasing &amp; Finance PLC (COSE:PLC.N0000)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2147,7 +2126,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.226</v>
+        <v>0.042</v>
+      </c>
+      <c r="E15">
+        <v>-0.07730000000000001</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2156,100 +2138,97 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03611399495812689</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03611399495812689</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-1.33</v>
+        <v>16.5</v>
       </c>
       <c r="L15">
-        <v>-0.254302103250478</v>
+        <v>0.1870748299319728</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>6.77</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.05954265611257695</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.4103030303030303</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>6.77</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.05954265611257695</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.4103030303030303</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
-        <v>1.57</v>
+        <v>23.3</v>
       </c>
       <c r="V15">
-        <v>0.1032894736842105</v>
+        <v>0.2049252418645559</v>
       </c>
       <c r="W15">
-        <v>-0.1231481481481481</v>
+        <v>0.09181969949916528</v>
       </c>
       <c r="X15">
-        <v>0.0585072846886879</v>
+        <v>0.04800934663740622</v>
       </c>
       <c r="Y15">
-        <v>-0.1816554328368361</v>
+        <v>0.04381035286175906</v>
       </c>
       <c r="Z15">
-        <v>0.1284203929696061</v>
+        <v>0.2447280799112098</v>
       </c>
       <c r="AA15">
-        <v>0.004637773424225028</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.05983785171645618</v>
+        <v>0.05575878730076724</v>
       </c>
       <c r="AC15">
-        <v>-0.05520007829223116</v>
+        <v>-0.05575878730076724</v>
       </c>
       <c r="AD15">
-        <v>30.7</v>
+        <v>152.8</v>
       </c>
       <c r="AE15">
-        <v>0.3956190318449818</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>31.09561903184498</v>
+        <v>152.8</v>
       </c>
       <c r="AG15">
-        <v>29.52561903184498</v>
+        <v>129.5</v>
       </c>
       <c r="AH15">
-        <v>0.6716751969653003</v>
+        <v>0.5733583489681051</v>
       </c>
       <c r="AI15">
-        <v>0.8389342966356271</v>
+        <v>0.4317603842893473</v>
       </c>
       <c r="AJ15">
-        <v>0.6601500363991053</v>
+        <v>0.532483552631579</v>
       </c>
       <c r="AK15">
-        <v>0.8318102300274296</v>
+        <v>0.3917120387174833</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>114.5522388059701</v>
-      </c>
-      <c r="AP15">
-        <v>110.1702202680783</v>
       </c>
     </row>
     <row r="16">
@@ -2260,7 +2239,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Softlogic Finance PLC (COSE:CRL.N0000)</t>
+          <t>LOLC Development Finance PLC (COSE:NIFL.N0000)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2269,10 +2248,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.00804</v>
+        <v>0.245</v>
       </c>
       <c r="E16">
-        <v>-0.00187</v>
+        <v>-0.222</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2287,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.01</v>
+        <v>0.501</v>
       </c>
       <c r="L16">
-        <v>0.1498516320474777</v>
+        <v>0.04394736842105263</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2314,55 +2293,55 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.427</v>
+        <v>1.61</v>
       </c>
       <c r="V16">
-        <v>0.04485294117647059</v>
+        <v>0.028</v>
       </c>
       <c r="W16">
-        <v>0.07426470588235294</v>
+        <v>0.03479166666666667</v>
       </c>
       <c r="X16">
-        <v>0.05252584970013378</v>
+        <v>0.04579876235764088</v>
       </c>
       <c r="Y16">
-        <v>0.02173885618221916</v>
+        <v>-0.01100709569097422</v>
       </c>
       <c r="Z16">
-        <v>0.2379943502824859</v>
+        <v>0.1615875265768958</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.05568083897524591</v>
+        <v>0.05691703640095333</v>
       </c>
       <c r="AC16">
-        <v>-0.05568083897524591</v>
+        <v>-0.05691703640095333</v>
       </c>
       <c r="AD16">
-        <v>14.5</v>
+        <v>68.3</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>14.5</v>
+        <v>68.3</v>
       </c>
       <c r="AG16">
-        <v>14.073</v>
+        <v>66.69</v>
       </c>
       <c r="AH16">
-        <v>0.6036636136552873</v>
+        <v>0.5429252782193958</v>
       </c>
       <c r="AI16">
-        <v>0.5753968253968255</v>
+        <v>0.8238841978287094</v>
       </c>
       <c r="AJ16">
-        <v>0.5964904844657314</v>
+        <v>0.5369997584346565</v>
       </c>
       <c r="AK16">
-        <v>0.5680781495983531</v>
+        <v>0.8203961126829868</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2379,7 +2358,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Trade Finance &amp; Investments PLC (COSE:TFIL.N0000)</t>
+          <t>Orient Finance PLC (COSE:BFN.N0000)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2388,10 +2367,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.347</v>
-      </c>
-      <c r="E17">
-        <v>0.275</v>
+        <v>0.00014</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2406,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>-1.21</v>
       </c>
       <c r="L17">
-        <v>0.4318488529014845</v>
+        <v>-0.3993399339933993</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2418,7 +2394,7 @@
         <v>-0</v>
       </c>
       <c r="O17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>-0</v>
@@ -2427,61 +2403,61 @@
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>2.02</v>
+        <v>1.17</v>
       </c>
       <c r="V17">
-        <v>0.08744588744588744</v>
+        <v>0.08731343283582088</v>
       </c>
       <c r="W17">
-        <v>0.3791469194312796</v>
+        <v>-0.09097744360902255</v>
       </c>
       <c r="X17">
-        <v>0.05327700184531516</v>
+        <v>0.04673229994769255</v>
       </c>
       <c r="Y17">
-        <v>0.3258699175859645</v>
+        <v>-0.1377097435567151</v>
       </c>
       <c r="Z17">
-        <v>0.2079124579124579</v>
+        <v>0.1024721837059082</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.05602351862721854</v>
+        <v>0.05760497247819655</v>
       </c>
       <c r="AC17">
-        <v>-0.05602351862721854</v>
+        <v>-0.05760497247819655</v>
       </c>
       <c r="AD17">
-        <v>36.7</v>
+        <v>16.8</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>36.7</v>
+        <v>16.8</v>
       </c>
       <c r="AG17">
-        <v>34.68</v>
+        <v>15.63</v>
       </c>
       <c r="AH17">
-        <v>0.6137123745819398</v>
+        <v>0.5562913907284768</v>
       </c>
       <c r="AI17">
-        <v>0.7758985200845666</v>
+        <v>0.536741214057508</v>
       </c>
       <c r="AJ17">
-        <v>0.6002076843198338</v>
+        <v>0.538408542886669</v>
       </c>
       <c r="AK17">
-        <v>0.7659010600706714</v>
+        <v>0.5187520743445071</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2498,7 +2474,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vallibel Finance PLC (COSE:VFIN.N0000)</t>
+          <t>Arpico Finance Company PLC (COSE:ARPI.N0000)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2507,10 +2483,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.306</v>
-      </c>
-      <c r="E18">
-        <v>0.3</v>
+        <v>-0.163</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2519,103 +2492,94 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.004352865194262429</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.002812957105437931</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>6.43</v>
+        <v>-1.73</v>
       </c>
       <c r="L18">
-        <v>0.2990697674418605</v>
+        <v>-0.8439024390243903</v>
       </c>
       <c r="M18">
-        <v>1.3</v>
+        <v>-0</v>
       </c>
       <c r="N18">
-        <v>0.05531914893617022</v>
+        <v>-0</v>
       </c>
       <c r="O18">
-        <v>0.2021772939346812</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.29</v>
+        <v>-0</v>
       </c>
       <c r="Q18">
-        <v>0.0548936170212766</v>
+        <v>-0</v>
       </c>
       <c r="R18">
-        <v>0.2006220839813375</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="T18">
-        <v>0.007692307692307699</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>5.21</v>
+        <v>4.68</v>
       </c>
       <c r="V18">
-        <v>0.2217021276595745</v>
+        <v>0.5288135593220339</v>
       </c>
       <c r="W18">
-        <v>0.2232638888888889</v>
+        <v>-0.1880434782608696</v>
       </c>
       <c r="X18">
-        <v>0.07734980551252947</v>
+        <v>0.04593919297715224</v>
       </c>
       <c r="Y18">
-        <v>0.1459140833763594</v>
+        <v>-0.2339826712380218</v>
       </c>
       <c r="Z18">
-        <v>0.2081980308566851</v>
+        <v>0.08588186007540846</v>
       </c>
       <c r="AA18">
-        <v>0.0005856521302364981</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.05852953604839814</v>
+        <v>0.05866335134347235</v>
       </c>
       <c r="AC18">
-        <v>-0.05794388391816164</v>
+        <v>-0.05866335134347235</v>
       </c>
       <c r="AD18">
-        <v>84</v>
+        <v>10.6</v>
       </c>
       <c r="AE18">
-        <v>2.767066991616789</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>86.76706699161679</v>
+        <v>10.6</v>
       </c>
       <c r="AG18">
-        <v>81.55706699161679</v>
+        <v>5.92</v>
       </c>
       <c r="AH18">
-        <v>0.786881063937371</v>
+        <v>0.544987146529563</v>
       </c>
       <c r="AI18">
-        <v>0.7317973632404317</v>
+        <v>0.5503634475597092</v>
       </c>
       <c r="AJ18">
-        <v>0.7763120495085283</v>
+        <v>0.4008124576844956</v>
       </c>
       <c r="AK18">
-        <v>0.7194705116854184</v>
+        <v>0.4060356652949246</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>129.8299845440495</v>
-      </c>
-      <c r="AP18">
-        <v>126.0541993688049</v>
       </c>
     </row>
     <row r="19">
@@ -2626,7 +2590,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Singer Finance (Lanka) PLC (COSE:SFIN.N0000)</t>
+          <t>Associated Motor Finance Company PLC (COSE:AMF.N0000)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2635,10 +2599,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.164</v>
-      </c>
-      <c r="E19">
-        <v>0.0539</v>
+        <v>-0.111</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2647,103 +2608,94 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002569171444814432</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.002072896241265745</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.24</v>
+        <v>-1.52</v>
       </c>
       <c r="L19">
-        <v>0.1964912280701754</v>
+        <v>-0.4470588235294118</v>
       </c>
       <c r="M19">
-        <v>1.17</v>
+        <v>-0</v>
       </c>
       <c r="N19">
-        <v>0.08068965517241379</v>
+        <v>-0</v>
       </c>
       <c r="O19">
-        <v>0.5223214285714285</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.17</v>
+        <v>-0</v>
       </c>
       <c r="Q19">
-        <v>0.08068965517241379</v>
+        <v>-0</v>
       </c>
       <c r="R19">
-        <v>0.5223214285714285</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
-        <v>1.41</v>
+        <v>7.64</v>
       </c>
       <c r="V19">
-        <v>0.09724137931034482</v>
+        <v>0.6882882882882883</v>
       </c>
       <c r="W19">
-        <v>0.1056603773584906</v>
+        <v>-0.1381818181818182</v>
       </c>
       <c r="X19">
-        <v>0.07741407587715156</v>
+        <v>0.05296429744235499</v>
       </c>
       <c r="Y19">
-        <v>0.02824630148133903</v>
+        <v>-0.1911461156241732</v>
       </c>
       <c r="Z19">
-        <v>0.1763653226332267</v>
+        <v>0.108765195137556</v>
       </c>
       <c r="AA19">
-        <v>0.0003655870143760359</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.05853712347409017</v>
+        <v>0.06133496647246481</v>
       </c>
       <c r="AC19">
-        <v>-0.05817153645971413</v>
+        <v>-0.06133496647246481</v>
       </c>
       <c r="AD19">
-        <v>53.3</v>
+        <v>18.8</v>
       </c>
       <c r="AE19">
-        <v>0.3185572276455774</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>53.61855722764557</v>
+        <v>18.8</v>
       </c>
       <c r="AG19">
-        <v>52.20855722764558</v>
+        <v>11.16</v>
       </c>
       <c r="AH19">
-        <v>0.7871358321412708</v>
+        <v>0.6287625418060201</v>
       </c>
       <c r="AI19">
-        <v>0.729320041763321</v>
+        <v>0.6287625418060201</v>
       </c>
       <c r="AJ19">
-        <v>0.7826365821326614</v>
+        <v>0.5013477088948788</v>
       </c>
       <c r="AK19">
-        <v>0.7240272061306675</v>
+        <v>0.5013477088948788</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>573.1182795698925</v>
-      </c>
-      <c r="AP19">
-        <v>561.3823357811352</v>
       </c>
     </row>
     <row r="20">
@@ -2754,7 +2706,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Commercial Credit and Finance PLC (COSE:COCR.N0000)</t>
+          <t>LOLC Finance PLC (COSE:LOFC.N0000)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2763,11 +2715,11 @@
         </is>
       </c>
       <c r="D20">
+        <v>0.0713</v>
+      </c>
+      <c r="E20">
         <v>0.147</v>
       </c>
-      <c r="E20">
-        <v>0.09369999999999999</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -2781,85 +2733,82 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.1</v>
+        <v>16.4</v>
       </c>
       <c r="L20">
-        <v>0.2508896797153025</v>
+        <v>0.2803418803418803</v>
       </c>
       <c r="M20">
-        <v>1.53</v>
+        <v>-0</v>
       </c>
       <c r="N20">
-        <v>0.02959381044487427</v>
+        <v>-0</v>
       </c>
       <c r="O20">
-        <v>0.1085106382978723</v>
+        <v>-0</v>
       </c>
       <c r="P20">
-        <v>1.53</v>
+        <v>-0</v>
       </c>
       <c r="Q20">
-        <v>0.02959381044487427</v>
+        <v>-0</v>
       </c>
       <c r="R20">
-        <v>0.1085106382978723</v>
+        <v>-0</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
-        <v>8.74</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="V20">
-        <v>0.1690522243713733</v>
+        <v>0.8741396263520158</v>
       </c>
       <c r="W20">
-        <v>0.2052401746724891</v>
+        <v>0.1046585832801532</v>
       </c>
       <c r="X20">
-        <v>0.05993151197784585</v>
+        <v>0.05688523612616818</v>
       </c>
       <c r="Y20">
-        <v>0.1453086626946432</v>
+        <v>0.04777334715398499</v>
       </c>
       <c r="Z20">
-        <v>0.3437308868501529</v>
+        <v>0.1845425867507886</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.05843967000370077</v>
+        <v>0.06311547183289079</v>
       </c>
       <c r="AC20">
-        <v>-0.05843967000370077</v>
+        <v>-0.06311547183289079</v>
       </c>
       <c r="AD20">
-        <v>112.2</v>
+        <v>200.4</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>112.2</v>
+        <v>200.4</v>
       </c>
       <c r="AG20">
-        <v>103.46</v>
+        <v>111.5</v>
       </c>
       <c r="AH20">
-        <v>0.6845637583892618</v>
+        <v>0.663356504468719</v>
       </c>
       <c r="AI20">
-        <v>0.6016085790884719</v>
+        <v>0.5401617250673855</v>
       </c>
       <c r="AJ20">
-        <v>0.6667955658674916</v>
+        <v>0.5229831144465291</v>
       </c>
       <c r="AK20">
-        <v>0.5820207020702071</v>
+        <v>0.3952499113789436</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -2876,7 +2825,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Orient Finance PLC (COSE:BFN.N0000)</t>
+          <t>Commercial Credit and Finance PLC (COSE:COCR.N0000)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2885,7 +2834,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.238</v>
+        <v>0.005560000000000001</v>
+      </c>
+      <c r="E21">
+        <v>-0.06909999999999999</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2900,82 +2852,85 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>-1.28</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L21">
-        <v>-0.3459459459459459</v>
+        <v>0.1938325991189428</v>
       </c>
       <c r="M21">
-        <v>-0</v>
+        <v>0.207</v>
       </c>
       <c r="N21">
-        <v>-0</v>
+        <v>0.004836448598130841</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.02352272727272727</v>
       </c>
       <c r="P21">
-        <v>-0</v>
+        <v>0.207</v>
       </c>
       <c r="Q21">
-        <v>-0</v>
+        <v>0.004836448598130841</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>0.02352272727272727</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
       <c r="U21">
-        <v>0.631</v>
+        <v>9.4</v>
       </c>
       <c r="V21">
-        <v>0.0548695652173913</v>
+        <v>0.2196261682242991</v>
       </c>
       <c r="W21">
-        <v>-0.09078014184397164</v>
+        <v>0.1185983827493261</v>
       </c>
       <c r="X21">
-        <v>0.05499806617087473</v>
+        <v>0.07103768026072815</v>
       </c>
       <c r="Y21">
-        <v>-0.1457782080148464</v>
+        <v>0.04756070248859799</v>
       </c>
       <c r="Z21">
-        <v>0.1298610136178576</v>
+        <v>0.2555442980974896</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.05848389883918122</v>
+        <v>0.06392153373886603</v>
       </c>
       <c r="AC21">
-        <v>-0.05848389883918122</v>
+        <v>-0.06392153373886603</v>
       </c>
       <c r="AD21">
-        <v>20</v>
+        <v>127.1</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>20</v>
+        <v>127.1</v>
       </c>
       <c r="AG21">
-        <v>19.369</v>
+        <v>117.7</v>
       </c>
       <c r="AH21">
-        <v>0.6349206349206349</v>
+        <v>0.748087110064744</v>
       </c>
       <c r="AI21">
-        <v>0.6006006006006006</v>
+        <v>0.608133971291866</v>
       </c>
       <c r="AJ21">
-        <v>0.6274579675402507</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AK21">
-        <v>0.5928862224126848</v>
+        <v>0.5896793587174348</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -2992,7 +2947,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Associated Motor Finance Company PLC (COSE:AMF.N0000)</t>
+          <t>Singer Finance (Lanka) PLC (COSE:SFIN.N0000)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3001,10 +2956,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="E22">
-        <v>0.127</v>
+        <v>0.00063</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3013,94 +2968,103 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.009551884848617961</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.005966794209897834</v>
       </c>
       <c r="K22">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="L22">
-        <v>0.3053097345132743</v>
+        <v>0.2034188034188034</v>
       </c>
       <c r="M22">
-        <v>-0</v>
+        <v>0.049</v>
       </c>
       <c r="N22">
-        <v>-0</v>
+        <v>0.003006134969325153</v>
       </c>
       <c r="O22">
-        <v>-0</v>
+        <v>0.02058823529411765</v>
       </c>
       <c r="P22">
-        <v>-0</v>
+        <v>0.049</v>
       </c>
       <c r="Q22">
-        <v>-0</v>
+        <v>0.003006134969325153</v>
       </c>
       <c r="R22">
-        <v>-0</v>
+        <v>0.02058823529411765</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
       <c r="U22">
-        <v>3.43</v>
+        <v>7.01</v>
       </c>
       <c r="V22">
-        <v>0.2467625899280576</v>
+        <v>0.4300613496932515</v>
       </c>
       <c r="W22">
-        <v>0.1510948905109489</v>
+        <v>0.1195979899497488</v>
       </c>
       <c r="X22">
-        <v>0.05633687665648529</v>
+        <v>0.078964176944124</v>
       </c>
       <c r="Y22">
-        <v>0.09475801385446361</v>
+        <v>0.04063381300562476</v>
       </c>
       <c r="Z22">
-        <v>0.1085147247119078</v>
+        <v>0.162689318992832</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>0.0009707336865786517</v>
       </c>
       <c r="AB22">
-        <v>0.05903474819169642</v>
+        <v>0.06537554853903338</v>
       </c>
       <c r="AC22">
-        <v>-0.05903474819169642</v>
+        <v>-0.06440481485245472</v>
       </c>
       <c r="AD22">
-        <v>25.8</v>
+        <v>57.4</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>0.1262147363558494</v>
       </c>
       <c r="AF22">
-        <v>25.8</v>
+        <v>57.52621473635585</v>
       </c>
       <c r="AG22">
-        <v>22.37</v>
+        <v>50.51621473635585</v>
       </c>
       <c r="AH22">
-        <v>0.649874055415617</v>
+        <v>0.7792112184241102</v>
       </c>
       <c r="AI22">
-        <v>0.6898395721925135</v>
+        <v>0.7224532137666774</v>
       </c>
       <c r="AJ22">
-        <v>0.6167631651502619</v>
+        <v>0.7560472399653779</v>
       </c>
       <c r="AK22">
-        <v>0.6585222254930821</v>
+        <v>0.6956602587970552</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>418.978102189781</v>
+      </c>
+      <c r="AP22">
+        <v>368.7314944259551</v>
       </c>
     </row>
     <row r="23">
@@ -3111,7 +3075,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Arpico Finance Company PLC (COSE:ARPI.N0000)</t>
+          <t>Vallibel Finance PLC (COSE:VFIN.N0000)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3120,10 +3084,10 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.289</v>
+        <v>0.201</v>
       </c>
       <c r="E23">
-        <v>0.278</v>
+        <v>0.223</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3138,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.56</v>
+        <v>6.46</v>
       </c>
       <c r="L23">
-        <v>0.1716171617161716</v>
+        <v>0.323</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3165,55 +3129,55 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>2.73</v>
+        <v>14.5</v>
       </c>
       <c r="V23">
-        <v>0.4424635332252836</v>
+        <v>0.6839622641509434</v>
       </c>
       <c r="W23">
-        <v>0.1380530973451327</v>
+        <v>0.2031446540880503</v>
       </c>
       <c r="X23">
-        <v>0.06736900042254952</v>
+        <v>0.07721403625204969</v>
       </c>
       <c r="Y23">
-        <v>0.07068409692258322</v>
+        <v>0.1259306178360006</v>
       </c>
       <c r="Z23">
-        <v>0.1651826276576413</v>
+        <v>0.1808481779546071</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.06026966178427197</v>
+        <v>0.06508628139880654</v>
       </c>
       <c r="AC23">
-        <v>-0.06026966178427197</v>
+        <v>-0.06508628139880654</v>
       </c>
       <c r="AD23">
-        <v>17.4</v>
+        <v>72.2</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>17.4</v>
+        <v>72.2</v>
       </c>
       <c r="AG23">
-        <v>14.67</v>
+        <v>57.7</v>
       </c>
       <c r="AH23">
-        <v>0.7382265591854051</v>
+        <v>0.7730192719486081</v>
       </c>
       <c r="AI23">
-        <v>0.6541353383458647</v>
+        <v>0.6569608735213831</v>
       </c>
       <c r="AJ23">
-        <v>0.7039347408829175</v>
+        <v>0.7313054499366286</v>
       </c>
       <c r="AK23">
-        <v>0.6145789694176791</v>
+        <v>0.6048218029350104</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3230,7 +3194,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Citizens Development Business Finance PLC (COSE:CDB.N0000)</t>
+          <t>LOLC Holdings PLC (COSE:LOLC.N0000)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3239,10 +3203,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.156</v>
+        <v>0.154</v>
       </c>
       <c r="E24">
-        <v>0.234</v>
+        <v>0.241</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3251,103 +3215,94 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-0.003545722605803897</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-0.002992467613001737</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>9.77</v>
+        <v>109.8</v>
       </c>
       <c r="L24">
-        <v>0.2873529411764706</v>
+        <v>0.2434589800443459</v>
       </c>
       <c r="M24">
-        <v>1.09</v>
+        <v>-0</v>
       </c>
       <c r="N24">
-        <v>0.03482428115015974</v>
+        <v>-0</v>
       </c>
       <c r="O24">
-        <v>0.1115660184237462</v>
+        <v>-0</v>
       </c>
       <c r="P24">
-        <v>1.09</v>
+        <v>-0</v>
       </c>
       <c r="Q24">
-        <v>0.03482428115015974</v>
+        <v>-0</v>
       </c>
       <c r="R24">
-        <v>0.1115660184237462</v>
+        <v>-0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
-        <v>4.55</v>
+        <v>419.7</v>
       </c>
       <c r="V24">
-        <v>0.1453674121405751</v>
+        <v>1.216169226311214</v>
       </c>
       <c r="W24">
-        <v>0.216629711751663</v>
+        <v>0.2340652312939671</v>
       </c>
       <c r="X24">
-        <v>0.1036393640590172</v>
+        <v>0.09364076356728034</v>
       </c>
       <c r="Y24">
-        <v>0.1129903476926457</v>
+        <v>0.1404244677266868</v>
       </c>
       <c r="Z24">
-        <v>0.1816940344206864</v>
+        <v>0.2061054748194864</v>
       </c>
       <c r="AA24">
-        <v>-0.0005437135134795268</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.06061558939884668</v>
+        <v>0.06729585371147932</v>
       </c>
       <c r="AC24">
-        <v>-0.0611593029123262</v>
+        <v>-0.06729585371147932</v>
       </c>
       <c r="AD24">
-        <v>182</v>
+        <v>1575.5</v>
       </c>
       <c r="AE24">
-        <v>5.467772842986662</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>187.4677728429867</v>
+        <v>1575.5</v>
       </c>
       <c r="AG24">
-        <v>182.9177728429867</v>
+        <v>1155.8</v>
       </c>
       <c r="AH24">
-        <v>0.8569259100952472</v>
+        <v>0.8203165677392482</v>
       </c>
       <c r="AI24">
-        <v>0.7671542391289056</v>
+        <v>0.5775928437878066</v>
       </c>
       <c r="AJ24">
-        <v>0.8538870067380371</v>
+        <v>0.7700712905589978</v>
       </c>
       <c r="AK24">
-        <v>0.7627365172920126</v>
+        <v>0.5007798960138647</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>187.0503597122302</v>
-      </c>
-      <c r="AP24">
-        <v>187.9936000441795</v>
       </c>
     </row>
     <row r="25">
@@ -3367,10 +3322,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.135</v>
+        <v>0.0473</v>
       </c>
       <c r="E25">
-        <v>0.147</v>
+        <v>0.0274</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3385,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="L25">
-        <v>0.1957317073170732</v>
+        <v>0.2026315789473684</v>
       </c>
       <c r="M25">
         <v>-0</v>
@@ -3412,55 +3367,55 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V25">
-        <v>0.1728070175438596</v>
+        <v>0.1452380952380952</v>
       </c>
       <c r="W25">
-        <v>0.1197761194029851</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="X25">
-        <v>0.07384497327014364</v>
+        <v>0.07866276155532129</v>
       </c>
       <c r="Y25">
-        <v>0.04593114613284144</v>
+        <v>0.02609914320658348</v>
       </c>
       <c r="Z25">
-        <v>0.2153926976622012</v>
+        <v>0.2301983946690898</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.0614213929309019</v>
+        <v>0.06902471937437851</v>
       </c>
       <c r="AC25">
-        <v>-0.0614213929309019</v>
+        <v>-0.06902471937437851</v>
       </c>
       <c r="AD25">
-        <v>38.6</v>
+        <v>44.2</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>38.6</v>
+        <v>44.2</v>
       </c>
       <c r="AG25">
-        <v>36.63</v>
+        <v>42.37</v>
       </c>
       <c r="AH25">
-        <v>0.772</v>
+        <v>0.778169014084507</v>
       </c>
       <c r="AI25">
-        <v>0.5676470588235294</v>
+        <v>0.594885598923284</v>
       </c>
       <c r="AJ25">
-        <v>0.7626483447845097</v>
+        <v>0.7707840640349282</v>
       </c>
       <c r="AK25">
-        <v>0.55474784189005</v>
+        <v>0.5846557196081138</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3477,7 +3432,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LOLC Finance PLC (COSE:LOFC.N0000)</t>
+          <t>Merchant Bank of Sri Lanka &amp; Finance PLC (COSE:MBSL.N0000)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3486,10 +3441,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.219</v>
-      </c>
-      <c r="E26">
-        <v>0.342</v>
+        <v>-0.0433</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3504,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>28.6</v>
+        <v>-5.25</v>
       </c>
       <c r="L26">
-        <v>0.3454106280193237</v>
+        <v>-0.6394640682095005</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -3516,7 +3468,7 @@
         <v>-0</v>
       </c>
       <c r="O26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>-0</v>
@@ -3525,61 +3477,61 @@
         <v>-0</v>
       </c>
       <c r="R26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>124.2</v>
+        <v>12.7</v>
       </c>
       <c r="V26">
-        <v>1.100088573959256</v>
+        <v>1.898355754857997</v>
       </c>
       <c r="W26">
-        <v>0.2519823788546255</v>
+        <v>-0.3645833333333333</v>
       </c>
       <c r="X26">
-        <v>0.06393377942999338</v>
+        <v>0.1191710458327543</v>
       </c>
       <c r="Y26">
-        <v>0.1880485994246321</v>
+        <v>-0.4837543791660876</v>
       </c>
       <c r="Z26">
-        <v>0.2016070124178232</v>
+        <v>0.1065127140633108</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.0614671151711623</v>
+        <v>0.06934933666848236</v>
       </c>
       <c r="AC26">
-        <v>-0.0614671151711623</v>
+        <v>-0.06934933666848236</v>
       </c>
       <c r="AD26">
-        <v>284.5</v>
+        <v>42.6</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>284.5</v>
+        <v>42.6</v>
       </c>
       <c r="AG26">
-        <v>160.3</v>
+        <v>29.9</v>
       </c>
       <c r="AH26">
-        <v>0.7159033719174636</v>
+        <v>0.8642726719415703</v>
       </c>
       <c r="AI26">
-        <v>0.6448322756119674</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="AJ26">
-        <v>0.5867496339677891</v>
+        <v>0.8171631593331511</v>
       </c>
       <c r="AK26">
-        <v>0.5056782334384858</v>
+        <v>0.7136038186157517</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -3605,10 +3557,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.223</v>
+        <v>0.0281</v>
       </c>
       <c r="E27">
-        <v>0.03759999999999999</v>
+        <v>-0.127</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3623,85 +3575,82 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="L27">
-        <v>0.07868020304568528</v>
+        <v>0.07157894736842106</v>
       </c>
       <c r="M27">
-        <v>0.185</v>
+        <v>-0</v>
       </c>
       <c r="N27">
-        <v>0.0193717277486911</v>
+        <v>-0</v>
       </c>
       <c r="O27">
-        <v>0.1193548387096774</v>
+        <v>-0</v>
       </c>
       <c r="P27">
-        <v>0.185</v>
+        <v>-0</v>
       </c>
       <c r="Q27">
-        <v>0.0193717277486911</v>
+        <v>-0</v>
       </c>
       <c r="R27">
-        <v>0.1193548387096774</v>
+        <v>-0</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
-        <v>1.81</v>
+        <v>4.1</v>
       </c>
       <c r="V27">
-        <v>0.1895287958115183</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="W27">
-        <v>0.05984555984555985</v>
+        <v>0.053125</v>
       </c>
       <c r="X27">
-        <v>0.1320420984370377</v>
+        <v>0.1510538927733613</v>
       </c>
       <c r="Y27">
-        <v>-0.07219653859147789</v>
+        <v>-0.09792889277336128</v>
       </c>
       <c r="Z27">
-        <v>0.2065205996435685</v>
+        <v>0.1814882032667877</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.06173213131355908</v>
+        <v>0.07083313417298032</v>
       </c>
       <c r="AC27">
-        <v>-0.06173213131355908</v>
+        <v>-0.07083313417298032</v>
       </c>
       <c r="AD27">
-        <v>80.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>80.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="AG27">
-        <v>79.09</v>
+        <v>79.5</v>
       </c>
       <c r="AH27">
-        <v>0.8944168048645661</v>
+        <v>0.8960342979635584</v>
       </c>
       <c r="AI27">
-        <v>0.7574906367041199</v>
+        <v>0.7572463768115942</v>
       </c>
       <c r="AJ27">
-        <v>0.8922608303249098</v>
+        <v>0.8912556053811659</v>
       </c>
       <c r="AK27">
-        <v>0.7533098390322888</v>
+        <v>0.7478833490122295</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -3718,7 +3667,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Asia Asset Finance PLC (COSE:AAF.N0000)</t>
+          <t>Bimputh Finance PLC (COSE:BLI.N0000)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3727,10 +3676,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.304</v>
-      </c>
-      <c r="E28">
-        <v>0.106</v>
+        <v>-0.195</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3745,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.643</v>
+        <v>-1.31</v>
       </c>
       <c r="L28">
-        <v>0.1025518341307815</v>
+        <v>-0.5848214285714285</v>
       </c>
       <c r="M28">
         <v>-0</v>
@@ -3757,7 +3703,7 @@
         <v>-0</v>
       </c>
       <c r="O28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>-0</v>
@@ -3766,61 +3712,61 @@
         <v>-0</v>
       </c>
       <c r="R28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>3.27</v>
+        <v>1.66</v>
       </c>
       <c r="V28">
-        <v>0.5431893687707642</v>
+        <v>0.3079777365491651</v>
       </c>
       <c r="W28">
-        <v>0.05741071428571429</v>
+        <v>-0.2194304857621441</v>
       </c>
       <c r="X28">
-        <v>0.1077150223745344</v>
+        <v>0.09940340839391806</v>
       </c>
       <c r="Y28">
-        <v>-0.05030430808882009</v>
+        <v>-0.3188338941560621</v>
       </c>
       <c r="Z28">
-        <v>0.1799655568312284</v>
+        <v>0.06381766381766382</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0.06455405890797764</v>
+        <v>0.07182398113253131</v>
       </c>
       <c r="AC28">
-        <v>-0.06455405890797764</v>
+        <v>-0.07182398113253131</v>
       </c>
       <c r="AD28">
-        <v>38.2</v>
+        <v>26.8</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>38.2</v>
+        <v>26.8</v>
       </c>
       <c r="AG28">
-        <v>34.93</v>
+        <v>25.14</v>
       </c>
       <c r="AH28">
-        <v>0.8638625056535505</v>
+        <v>0.8325566946256602</v>
       </c>
       <c r="AI28">
-        <v>0.764</v>
+        <v>0.8537750876075183</v>
       </c>
       <c r="AJ28">
-        <v>0.852991452991453</v>
+        <v>0.8234523419587291</v>
       </c>
       <c r="AK28">
-        <v>0.7474855553177829</v>
+        <v>0.8456104944500504</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -3837,7 +3783,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Merchant Bank of Sri Lanka &amp; Finance PLC (COSE:MBSL.N0000)</t>
+          <t>Asia Asset Finance PLC (COSE:AAF.N0000)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3846,7 +3792,10 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.08470000000000001</v>
+        <v>0.137</v>
+      </c>
+      <c r="E29">
+        <v>-0.327</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3861,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2.14</v>
+        <v>0.094</v>
       </c>
       <c r="L29">
-        <v>0.1407894736842105</v>
+        <v>0.01705989110707804</v>
       </c>
       <c r="M29">
         <v>-0</v>
@@ -3888,55 +3837,55 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>2.02</v>
+        <v>4.15</v>
       </c>
       <c r="V29">
-        <v>0.2300683371298406</v>
+        <v>0.6825657894736843</v>
       </c>
       <c r="W29">
-        <v>0.1222857142857143</v>
+        <v>0.007966101694915254</v>
       </c>
       <c r="X29">
-        <v>0.1194283513692472</v>
+        <v>0.1032922220448904</v>
       </c>
       <c r="Y29">
-        <v>0.002857362916467085</v>
+        <v>-0.09532612034997517</v>
       </c>
       <c r="Z29">
-        <v>0.2063815342837746</v>
+        <v>0.1179114059490691</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.06753090459662067</v>
+        <v>0.07220274169825852</v>
       </c>
       <c r="AC29">
-        <v>-0.06753090459662067</v>
+        <v>-0.07220274169825852</v>
       </c>
       <c r="AD29">
-        <v>64.7</v>
+        <v>31.9</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>64.7</v>
+        <v>31.9</v>
       </c>
       <c r="AG29">
-        <v>62.68</v>
+        <v>27.75</v>
       </c>
       <c r="AH29">
-        <v>0.8805117038649972</v>
+        <v>0.8399157451290153</v>
       </c>
       <c r="AI29">
-        <v>0.7795180722891567</v>
+        <v>0.7316513761467891</v>
       </c>
       <c r="AJ29">
-        <v>0.8771340610131543</v>
+        <v>0.8202778598876737</v>
       </c>
       <c r="AK29">
-        <v>0.7740182761175598</v>
+        <v>0.7034220532319391</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -3953,7 +3902,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LOLC Holdings PLC (COSE:LOLC.N0000)</t>
+          <t>Citizens Development Business Finance PLC (COSE:CDB.N0000)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3962,10 +3911,10 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.322</v>
+        <v>0.126</v>
       </c>
       <c r="E30">
-        <v>0.341</v>
+        <v>0.218</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3974,16 +3923,16 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>-0.01440804687555054</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>-0.01105567953321947</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>81.8</v>
+        <v>11.6</v>
       </c>
       <c r="L30">
-        <v>0.1333116036505867</v>
+        <v>0.3706070287539936</v>
       </c>
       <c r="M30">
         <v>-0</v>
@@ -4007,67 +3956,61 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>639.4</v>
+        <v>7.71</v>
       </c>
       <c r="V30">
-        <v>1.375349537534954</v>
+        <v>0.2401869158878505</v>
       </c>
       <c r="W30">
-        <v>0.1556612749762131</v>
+        <v>0.2049469964664311</v>
       </c>
       <c r="X30">
-        <v>0.09529769682253789</v>
+        <v>0.1050046200765806</v>
       </c>
       <c r="Y30">
-        <v>0.06036357815367524</v>
+        <v>0.09994237638985053</v>
       </c>
       <c r="Z30">
-        <v>0.2661688132499506</v>
+        <v>0.1345021700829359</v>
       </c>
       <c r="AA30">
-        <v>-0.002942677101028795</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.06604842750448328</v>
+        <v>0.07489612494905631</v>
       </c>
       <c r="AC30">
-        <v>-0.06899110460551208</v>
+        <v>-0.07489612494905631</v>
       </c>
       <c r="AD30">
-        <v>2358.5</v>
+        <v>172.3</v>
       </c>
       <c r="AE30">
-        <v>87.10388781418905</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>2445.603887814189</v>
+        <v>172.3</v>
       </c>
       <c r="AG30">
-        <v>1806.203887814189</v>
+        <v>164.59</v>
       </c>
       <c r="AH30">
-        <v>0.8402682085578166</v>
+        <v>0.8429549902152642</v>
       </c>
       <c r="AI30">
-        <v>0.69264789705672</v>
+        <v>0.7233417296389588</v>
       </c>
       <c r="AJ30">
-        <v>0.7952977833843433</v>
+        <v>0.8367990238446287</v>
       </c>
       <c r="AK30">
-        <v>0.6246805904309766</v>
+        <v>0.7140873790619984</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>274.8834498834499</v>
-      </c>
-      <c r="AP30">
-        <v>210.5132736380174</v>
       </c>
     </row>
   </sheetData>
